--- a/Application Bs4/Data/triangleAT.xlsx
+++ b/Application Bs4/Data/triangleAT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARM-Ismail\Desktop\Risk-based-solvency\Application Bs4\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Risk-based-solvency\Application Bs4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A2827-9118-4B26-ACE2-E935CCA01898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,9 +25,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -91,7 +92,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -381,11 +382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +429,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B2" s="4">
         <v>3504</v>
@@ -466,7 +467,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B3" s="4">
         <v>4774.2421799999993</v>
@@ -504,7 +505,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B4" s="4">
         <v>3821.9183899999998</v>
@@ -542,7 +543,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="4">
         <v>4074</v>
@@ -580,7 +581,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B6" s="4">
         <v>5070</v>
@@ -618,7 +619,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="4">
         <v>3817</v>
@@ -656,7 +657,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="4">
         <v>7838</v>
@@ -694,7 +695,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B9" s="4">
         <v>7690</v>
@@ -732,7 +733,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B10" s="4">
         <v>8935</v>
@@ -770,7 +771,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B11" s="4">
         <v>4979.9748699999936</v>
@@ -808,7 +809,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B12" s="4">
         <v>5818.6407599999984</v>
